--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -327,6 +327,16 @@
   </si>
   <si>
     <t>Distinction entre les reconnaissances dites nationales (issues du guide méthodologique CPOM de la DGOS) et les reconnaissances dites régionales. Depuis 2019 toutes les reconnaissances contractuelles sont de type national (valeur = ‘N’).</t>
+  </si>
+  <si>
+    <t>ActiviteSoumiseReconnaissance.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
   </si>
 </sst>
 </file>
@@ -631,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -650,7 +660,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1781,6 +1791,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,6 +337,16 @@
   </si>
   <si>
     <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>ActiviteSoumiseReconnaissance.CapaciteActiviteExercee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteActiviteExercee
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteActiviteExercee</t>
   </si>
 </sst>
 </file>
@@ -641,7 +651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -660,7 +670,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1891,6 +1901,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSoumiseReconnaissance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
